--- a/mavenProject/src/main/java/testdata/Controller.xlsx
+++ b/mavenProject/src/main/java/testdata/Controller.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v.bamdeo.sharma\eclipse-workspace\mavenProject\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v.bamdeo.sharma\git\vikrant\mavenProject\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DFCBA4E9-8638-4C23-89DA-7E74D059F280}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C32DAE86-2B3C-4015-9BB1-EC66F72B3844}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12580" windowHeight="4360" xr2:uid="{E7C500D0-75A3-446A-B3E8-40B028592BF9}"/>
   </bookViews>
@@ -25,22 +25,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>ss</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>APACHE_POI_TC</t>
+  </si>
+  <si>
+    <t>Testuser1</t>
+  </si>
+  <si>
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t>APACHE_POI_TC1</t>
+  </si>
+  <si>
+    <t>Testuser2</t>
+  </si>
+  <si>
+    <t>Test@124</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +95,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -382,29 +417,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDC0CB2-0520-480A-93B2-AA6F3B8F2207}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>11</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C7B0A0C2-2480-4C67-A4FF-B9FD063B43BE}"/>
+    <hyperlink ref="C3" r:id="rId2" display="Test@123" xr:uid="{BFA9D2CC-9EA0-4F93-BADD-994927AA32AA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>